--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucdavis365.sharepoint.com/sites/CalFlexHub224/Shared Documents/General/Villara Heat Pump Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/230cc5a23d7a19aa/Documents/GitHub/WCECPlotly/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{99673BF3-90AD-4002-B254-26BE8782CC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="3285" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -175,7 +175,7 @@
     <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="d"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1002,6 +1002,30 @@
     <xf numFmtId="164" fontId="32" fillId="3" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="14" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1014,30 +1038,6 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1639,10 +1639,10 @@
   <dimension ref="A1:DV39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.75" style="12" customWidth="1"/>
     <col min="2" max="2" width="43.75" customWidth="1"/>
@@ -1654,7 +1654,7 @@
     <col min="8" max="126" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" s="70" customFormat="1" ht="90" customHeight="1">
+    <row r="1" spans="1:126" s="70" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="1.1000000000000001">
       <c r="A1" s="68"/>
       <c r="B1" s="69" t="s">
         <v>0</v>
@@ -1663,251 +1663,251 @@
       <c r="D1" s="17"/>
       <c r="E1" s="18"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
       <c r="O1" s="71"/>
-      <c r="P1" s="97">
+      <c r="P1" s="94">
         <v>45497</v>
       </c>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
     </row>
-    <row r="2" spans="1:126" s="70" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="2" spans="1:126" s="70" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="72"/>
       <c r="B2" s="73"/>
       <c r="C2" s="74"/>
       <c r="D2" s="75"/>
       <c r="E2" s="74"/>
-      <c r="H2" s="98" t="s">
+      <c r="H2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
       <c r="O2" s="71"/>
-      <c r="P2" s="96">
+      <c r="P2" s="92">
         <v>1</v>
       </c>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
     </row>
-    <row r="3" spans="1:126" s="20" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="3" spans="1:126" s="20" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="19"/>
       <c r="C3" s="21"/>
       <c r="D3" s="22"/>
     </row>
-    <row r="4" spans="1:126" s="20" customFormat="1" ht="30" customHeight="1">
+    <row r="4" spans="1:126" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="23"/>
       <c r="D4" s="24"/>
-      <c r="H4" s="93">
+      <c r="H4" s="103">
         <f>H5</f>
         <v>45495</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="92">
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="102">
         <f>O5</f>
         <v>45502</v>
       </c>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="92">
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="102">
         <f>V5</f>
         <v>45509</v>
       </c>
-      <c r="W4" s="93"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="92">
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="102">
         <f>AC5</f>
         <v>45516</v>
       </c>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="92">
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="103"/>
+      <c r="AF4" s="103"/>
+      <c r="AG4" s="103"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="102">
         <f>AJ5</f>
         <v>45523</v>
       </c>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="92">
+      <c r="AK4" s="103"/>
+      <c r="AL4" s="103"/>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="102">
         <f>AQ5</f>
         <v>45530</v>
       </c>
-      <c r="AR4" s="93"/>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="93"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="92">
+      <c r="AR4" s="103"/>
+      <c r="AS4" s="103"/>
+      <c r="AT4" s="103"/>
+      <c r="AU4" s="103"/>
+      <c r="AV4" s="103"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="102">
         <f>AX5</f>
         <v>45537</v>
       </c>
-      <c r="AY4" s="93"/>
-      <c r="AZ4" s="93"/>
-      <c r="BA4" s="93"/>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="93"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="92">
+      <c r="AY4" s="103"/>
+      <c r="AZ4" s="103"/>
+      <c r="BA4" s="103"/>
+      <c r="BB4" s="103"/>
+      <c r="BC4" s="103"/>
+      <c r="BD4" s="104"/>
+      <c r="BE4" s="102">
         <f>BE5</f>
         <v>45544</v>
       </c>
-      <c r="BF4" s="93"/>
-      <c r="BG4" s="93"/>
-      <c r="BH4" s="93"/>
-      <c r="BI4" s="93"/>
-      <c r="BJ4" s="93"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="92">
+      <c r="BF4" s="103"/>
+      <c r="BG4" s="103"/>
+      <c r="BH4" s="103"/>
+      <c r="BI4" s="103"/>
+      <c r="BJ4" s="103"/>
+      <c r="BK4" s="104"/>
+      <c r="BL4" s="102">
         <f>BL5</f>
         <v>45551</v>
       </c>
-      <c r="BM4" s="93"/>
-      <c r="BN4" s="93"/>
-      <c r="BO4" s="93"/>
-      <c r="BP4" s="93"/>
-      <c r="BQ4" s="93"/>
-      <c r="BR4" s="94"/>
-      <c r="BS4" s="95">
+      <c r="BM4" s="103"/>
+      <c r="BN4" s="103"/>
+      <c r="BO4" s="103"/>
+      <c r="BP4" s="103"/>
+      <c r="BQ4" s="103"/>
+      <c r="BR4" s="104"/>
+      <c r="BS4" s="105">
         <f>BS5</f>
         <v>45558</v>
       </c>
-      <c r="BT4" s="95"/>
-      <c r="BU4" s="95"/>
-      <c r="BV4" s="95"/>
-      <c r="BW4" s="95"/>
-      <c r="BX4" s="95"/>
-      <c r="BY4" s="92"/>
-      <c r="BZ4" s="95">
+      <c r="BT4" s="105"/>
+      <c r="BU4" s="105"/>
+      <c r="BV4" s="105"/>
+      <c r="BW4" s="105"/>
+      <c r="BX4" s="105"/>
+      <c r="BY4" s="102"/>
+      <c r="BZ4" s="105">
         <f>BZ5</f>
         <v>45565</v>
       </c>
-      <c r="CA4" s="95"/>
-      <c r="CB4" s="95"/>
-      <c r="CC4" s="95"/>
-      <c r="CD4" s="95"/>
-      <c r="CE4" s="95"/>
-      <c r="CF4" s="92"/>
-      <c r="CG4" s="95">
+      <c r="CA4" s="105"/>
+      <c r="CB4" s="105"/>
+      <c r="CC4" s="105"/>
+      <c r="CD4" s="105"/>
+      <c r="CE4" s="105"/>
+      <c r="CF4" s="102"/>
+      <c r="CG4" s="105">
         <f>CG5</f>
         <v>45572</v>
       </c>
-      <c r="CH4" s="95"/>
-      <c r="CI4" s="95"/>
-      <c r="CJ4" s="95"/>
-      <c r="CK4" s="95"/>
-      <c r="CL4" s="95"/>
-      <c r="CM4" s="92"/>
-      <c r="CN4" s="95">
+      <c r="CH4" s="105"/>
+      <c r="CI4" s="105"/>
+      <c r="CJ4" s="105"/>
+      <c r="CK4" s="105"/>
+      <c r="CL4" s="105"/>
+      <c r="CM4" s="102"/>
+      <c r="CN4" s="105">
         <f>CN5</f>
         <v>45579</v>
       </c>
-      <c r="CO4" s="95"/>
-      <c r="CP4" s="95"/>
-      <c r="CQ4" s="95"/>
-      <c r="CR4" s="95"/>
-      <c r="CS4" s="95"/>
-      <c r="CT4" s="92"/>
-      <c r="CU4" s="95">
+      <c r="CO4" s="105"/>
+      <c r="CP4" s="105"/>
+      <c r="CQ4" s="105"/>
+      <c r="CR4" s="105"/>
+      <c r="CS4" s="105"/>
+      <c r="CT4" s="102"/>
+      <c r="CU4" s="105">
         <f>CU5</f>
         <v>45586</v>
       </c>
-      <c r="CV4" s="95"/>
-      <c r="CW4" s="95"/>
-      <c r="CX4" s="95"/>
-      <c r="CY4" s="95"/>
-      <c r="CZ4" s="95"/>
-      <c r="DA4" s="92"/>
-      <c r="DB4" s="95">
+      <c r="CV4" s="105"/>
+      <c r="CW4" s="105"/>
+      <c r="CX4" s="105"/>
+      <c r="CY4" s="105"/>
+      <c r="CZ4" s="105"/>
+      <c r="DA4" s="102"/>
+      <c r="DB4" s="105">
         <f>DB5</f>
         <v>45593</v>
       </c>
-      <c r="DC4" s="95"/>
-      <c r="DD4" s="95"/>
-      <c r="DE4" s="95"/>
-      <c r="DF4" s="95"/>
-      <c r="DG4" s="95"/>
-      <c r="DH4" s="92"/>
-      <c r="DI4" s="95">
+      <c r="DC4" s="105"/>
+      <c r="DD4" s="105"/>
+      <c r="DE4" s="105"/>
+      <c r="DF4" s="105"/>
+      <c r="DG4" s="105"/>
+      <c r="DH4" s="102"/>
+      <c r="DI4" s="105">
         <f>DI5</f>
         <v>45600</v>
       </c>
-      <c r="DJ4" s="95"/>
-      <c r="DK4" s="95"/>
-      <c r="DL4" s="95"/>
-      <c r="DM4" s="95"/>
-      <c r="DN4" s="95"/>
-      <c r="DO4" s="92"/>
-      <c r="DP4" s="95">
+      <c r="DJ4" s="105"/>
+      <c r="DK4" s="105"/>
+      <c r="DL4" s="105"/>
+      <c r="DM4" s="105"/>
+      <c r="DN4" s="105"/>
+      <c r="DO4" s="102"/>
+      <c r="DP4" s="105">
         <f>DP5</f>
         <v>45607</v>
       </c>
-      <c r="DQ4" s="95"/>
-      <c r="DR4" s="95"/>
-      <c r="DS4" s="95"/>
-      <c r="DT4" s="95"/>
-      <c r="DU4" s="95"/>
-      <c r="DV4" s="92"/>
+      <c r="DQ4" s="105"/>
+      <c r="DR4" s="105"/>
+      <c r="DS4" s="105"/>
+      <c r="DT4" s="105"/>
+      <c r="DU4" s="105"/>
+      <c r="DV4" s="102"/>
     </row>
-    <row r="5" spans="1:126" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="99"/>
-      <c r="B5" s="100" t="s">
+    <row r="5" spans="1:126" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="97"/>
+      <c r="B5" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="102" t="s">
+      <c r="E5" s="100" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="25">
@@ -2387,12 +2387,12 @@
         <v>45613</v>
       </c>
     </row>
-    <row r="6" spans="1:126" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="99"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
+    <row r="6" spans="1:126" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="97"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
       <c r="H6" s="28" t="str">
         <f t="shared" ref="H6:AM6" si="48">LEFT(TEXT(H5,"ddd"),1)</f>
         <v>M</v>
@@ -2870,7 +2870,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:126" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="7" spans="1:126" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
@@ -2879,7 +2879,7 @@
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="G7" s="20" t="str">
-        <f ca="1">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="H7" s="32"/>
@@ -3002,7 +3002,7 @@
       <c r="DU7" s="32"/>
       <c r="DV7" s="32"/>
     </row>
-    <row r="8" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1">
+    <row r="8" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="85" t="s">
         <v>8</v>
@@ -3012,7 +3012,7 @@
       <c r="E8" s="88"/>
       <c r="F8" s="15"/>
       <c r="G8" s="4" t="str">
-        <f t="shared" ref="G8:G37" ca="1" si="52">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="G8:G37" si="52">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="H8" s="33"/>
@@ -3135,7 +3135,7 @@
       <c r="DU8" s="33"/>
       <c r="DV8" s="33"/>
     </row>
-    <row r="9" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1">
+    <row r="9" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="89" t="s">
         <v>9</v>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="4">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" si="52"/>
         <v>7</v>
       </c>
       <c r="H9" s="35"/>
@@ -3274,7 +3274,7 @@
       <c r="DU9" s="35"/>
       <c r="DV9" s="35"/>
     </row>
-    <row r="10" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1">
+    <row r="10" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="89" t="s">
         <v>10</v>
@@ -3410,7 +3410,7 @@
       <c r="DU10" s="35"/>
       <c r="DV10" s="35"/>
     </row>
-    <row r="11" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1">
+    <row r="11" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="89" t="s">
         <v>11</v>
@@ -3546,7 +3546,7 @@
       <c r="DU11" s="35"/>
       <c r="DV11" s="35"/>
     </row>
-    <row r="12" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1">
+    <row r="12" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="89" t="s">
         <v>12</v>
@@ -3682,7 +3682,7 @@
       <c r="DU12" s="35"/>
       <c r="DV12" s="35"/>
     </row>
-    <row r="13" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1">
+    <row r="13" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="89" t="s">
         <v>9</v>
@@ -3818,7 +3818,7 @@
       <c r="DU13" s="35"/>
       <c r="DV13" s="35"/>
     </row>
-    <row r="14" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1">
+    <row r="14" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="89" t="s">
         <v>13</v>
@@ -3954,7 +3954,7 @@
       <c r="DU14" s="35"/>
       <c r="DV14" s="35"/>
     </row>
-    <row r="15" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="89" t="s">
         <v>9</v>
@@ -3971,7 +3971,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="16" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="36" t="s">
         <v>14</v>
@@ -3981,11 +3981,11 @@
       <c r="E16" s="39"/>
       <c r="F16" s="15"/>
       <c r="G16" s="4" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="17" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="40" t="s">
         <v>9</v>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="4">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" si="52"/>
         <v>7</v>
       </c>
       <c r="H17" s="35"/>
@@ -4124,7 +4124,7 @@
       <c r="DU17" s="35"/>
       <c r="DV17" s="35"/>
     </row>
-    <row r="18" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="18" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="40" t="s">
         <v>10</v>
@@ -4260,7 +4260,7 @@
       <c r="DU18" s="35"/>
       <c r="DV18" s="35"/>
     </row>
-    <row r="19" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="19" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="40" t="s">
         <v>15</v>
@@ -4396,7 +4396,7 @@
       <c r="DU19" s="35"/>
       <c r="DV19" s="35"/>
     </row>
-    <row r="20" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="20" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="40" t="s">
         <v>16</v>
@@ -4532,7 +4532,7 @@
       <c r="DU20" s="35"/>
       <c r="DV20" s="35"/>
     </row>
-    <row r="21" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="21" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="40" t="s">
         <v>9</v>
@@ -4668,7 +4668,7 @@
       <c r="DU21" s="35"/>
       <c r="DV21" s="35"/>
     </row>
-    <row r="22" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="22" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="40" t="s">
         <v>13</v>
@@ -4804,7 +4804,7 @@
       <c r="DU22" s="35"/>
       <c r="DV22" s="35"/>
     </row>
-    <row r="23" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="23" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="82" t="s">
         <v>9</v>
@@ -4940,7 +4940,7 @@
       <c r="DU23" s="47"/>
       <c r="DV23" s="47"/>
     </row>
-    <row r="24" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="24" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="43" t="s">
         <v>17</v>
@@ -4950,7 +4950,7 @@
       <c r="E24" s="46"/>
       <c r="F24" s="15"/>
       <c r="G24" s="4" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="H24" s="47"/>
@@ -5073,7 +5073,7 @@
       <c r="DU24" s="47"/>
       <c r="DV24" s="47"/>
     </row>
-    <row r="25" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="25" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="76" t="s">
         <v>9</v>
@@ -5085,7 +5085,7 @@
       <c r="E25" s="78"/>
       <c r="F25" s="15"/>
       <c r="G25" s="4" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="H25" s="35"/>
@@ -5208,7 +5208,7 @@
       <c r="DU25" s="35"/>
       <c r="DV25" s="35"/>
     </row>
-    <row r="26" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="26" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="76" t="s">
         <v>10</v>
@@ -5220,7 +5220,7 @@
       <c r="E26" s="78"/>
       <c r="F26" s="15"/>
       <c r="G26" s="4" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="H26" s="35"/>
@@ -5343,7 +5343,7 @@
       <c r="DU26" s="35"/>
       <c r="DV26" s="35"/>
     </row>
-    <row r="27" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="27" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="76" t="s">
         <v>15</v>
@@ -5355,7 +5355,7 @@
       <c r="E27" s="78"/>
       <c r="F27" s="15"/>
       <c r="G27" s="4" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="H27" s="35"/>
@@ -5478,7 +5478,7 @@
       <c r="DU27" s="35"/>
       <c r="DV27" s="35"/>
     </row>
-    <row r="28" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="28" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="76" t="s">
         <v>16</v>
@@ -5490,7 +5490,7 @@
       <c r="E28" s="78"/>
       <c r="F28" s="15"/>
       <c r="G28" s="4" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="H28" s="35"/>
@@ -5613,7 +5613,7 @@
       <c r="DU28" s="35"/>
       <c r="DV28" s="35"/>
     </row>
-    <row r="29" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="29" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="76" t="s">
         <v>9</v>
@@ -5625,7 +5625,7 @@
       <c r="E29" s="78"/>
       <c r="F29" s="15"/>
       <c r="G29" s="4" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="H29" s="35"/>
@@ -5748,7 +5748,7 @@
       <c r="DU29" s="35"/>
       <c r="DV29" s="35"/>
     </row>
-    <row r="30" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="30" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="76" t="s">
         <v>13</v>
@@ -5880,7 +5880,7 @@
       <c r="DU30" s="35"/>
       <c r="DV30" s="35"/>
     </row>
-    <row r="31" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="31" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="48" t="s">
         <v>9</v>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="4">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" si="52"/>
         <v>7</v>
       </c>
       <c r="H31" s="52"/>
@@ -6019,7 +6019,7 @@
       <c r="DU31" s="52"/>
       <c r="DV31" s="52"/>
     </row>
-    <row r="32" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="32" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="79" t="s">
         <v>18</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="4">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" si="52"/>
         <v>4</v>
       </c>
       <c r="H32" s="35"/>
@@ -6159,7 +6159,7 @@
       <c r="DU32" s="35"/>
       <c r="DV32" s="35"/>
     </row>
-    <row r="33" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="33" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="79" t="s">
         <v>19</v>
@@ -6175,7 +6175,7 @@
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="4">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" si="52"/>
         <v>4</v>
       </c>
       <c r="H33" s="35"/>
@@ -6298,7 +6298,7 @@
       <c r="DU33" s="35"/>
       <c r="DV33" s="35"/>
     </row>
-    <row r="34" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="34" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="79" t="s">
         <v>20</v>
@@ -6315,7 +6315,7 @@
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="4">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" si="52"/>
         <v>4</v>
       </c>
       <c r="H34" s="35"/>
@@ -6438,7 +6438,7 @@
       <c r="DU34" s="35"/>
       <c r="DV34" s="35"/>
     </row>
-    <row r="35" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="35" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="79" t="s">
         <v>21</v>
@@ -6455,7 +6455,7 @@
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="4">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" si="52"/>
         <v>4</v>
       </c>
       <c r="H35" s="35"/>
@@ -6578,7 +6578,7 @@
       <c r="DU35" s="35"/>
       <c r="DV35" s="35"/>
     </row>
-    <row r="36" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="36" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="53"/>
       <c r="C36" s="54"/>
@@ -6586,7 +6586,7 @@
       <c r="E36" s="55"/>
       <c r="F36" s="15"/>
       <c r="G36" s="4" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="H36" s="33"/>
@@ -6709,7 +6709,7 @@
       <c r="DU36" s="33"/>
       <c r="DV36" s="33"/>
     </row>
-    <row r="37" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="37" spans="1:126" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="56" t="s">
         <v>22</v>
@@ -6719,7 +6719,7 @@
       <c r="E37" s="59"/>
       <c r="F37" s="15"/>
       <c r="G37" s="5" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="H37" s="60"/>
@@ -6842,14 +6842,29 @@
       <c r="DU37" s="60"/>
       <c r="DV37" s="60"/>
     </row>
-    <row r="38" spans="1:126" ht="30" customHeight="1">
+    <row r="38" spans="1:126" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:126" ht="30" customHeight="1">
+    <row r="39" spans="1:126" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E39" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="CU4:DA4"/>
+    <mergeCell ref="DB4:DH4"/>
+    <mergeCell ref="DI4:DO4"/>
+    <mergeCell ref="DP4:DV4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="CG4:CM4"/>
+    <mergeCell ref="CN4:CT4"/>
     <mergeCell ref="P2:Y2"/>
     <mergeCell ref="P1:Y1"/>
     <mergeCell ref="H1:N1"/>
@@ -6861,21 +6876,6 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="O4:U4"/>
     <mergeCell ref="H4:N4"/>
-    <mergeCell ref="CU4:DA4"/>
-    <mergeCell ref="DB4:DH4"/>
-    <mergeCell ref="DI4:DO4"/>
-    <mergeCell ref="DP4:DV4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="CG4:CM4"/>
-    <mergeCell ref="CN4:CT4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AJ4:AP4"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:C37">
     <cfRule type="dataBar" priority="105">
@@ -6981,110 +6981,110 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="87" style="6" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
-    <row r="2" spans="1:2" s="8" customFormat="1" ht="15.6">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:2" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:2" s="10" customFormat="1" ht="27" customHeight="1">
+    <row r="3" spans="1:2" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="62"/>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" ht="30">
+    <row r="4" spans="1:2" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
       <c r="A4" s="63" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.25" customHeight="1">
+    <row r="5" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="64" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="63" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="6" customFormat="1" ht="205.15" customHeight="1">
+    <row r="7" spans="1:2" s="6" customFormat="1" ht="205.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="65" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="9" customFormat="1" ht="30">
+    <row r="8" spans="1:2" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
       <c r="A8" s="63" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="41.45">
+    <row r="9" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="64" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="6" customFormat="1" ht="28.15" customHeight="1">
+    <row r="10" spans="1:2" s="6" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="9" customFormat="1" ht="30">
+    <row r="11" spans="1:2" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
       <c r="A11" s="63" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="27.6">
+    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="64" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="6" customFormat="1" ht="28.15" customHeight="1">
+    <row r="13" spans="1:2" s="6" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="66" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="9" customFormat="1" ht="30">
+    <row r="14" spans="1:2" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
       <c r="A14" s="63" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="64" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="69">
+    <row r="16" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A16" s="64" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="67"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="67"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="67"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="67"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="67"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="67"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="67"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="67"/>
     </row>
   </sheetData>
@@ -7100,6 +7100,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d2dffda9-c7f4-4d50-9826-5f6ff79bcd11" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="95bc382b-9196-4ce9-9ffe-a1d721c81157" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="95bc382b-9196-4ce9-9ffe-a1d721c81157">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C993907E8E07134C85F0400C43CF5DDF" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7ac4e9a64ae72e8f22b4965d0b053c3a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95bc382b-9196-4ce9-9ffe-a1d721c81157" xmlns:ns3="d2dffda9-c7f4-4d50-9826-5f6ff79bcd11" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d8f51e7e81380c459a49134631fa740" ns2:_="" ns3:_="">
     <xsd:import namespace="95bc382b-9196-4ce9-9ffe-a1d721c81157"/>
@@ -7348,37 +7369,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d2dffda9-c7f4-4d50-9826-5f6ff79bcd11" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="95bc382b-9196-4ce9-9ffe-a1d721c81157" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="95bc382b-9196-4ce9-9ffe-a1d721c81157">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C415C5E-0C59-4C3B-9C26-A078CE616443}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d2dffda9-c7f4-4d50-9826-5f6ff79bcd11"/>
+    <ds:schemaRef ds:uri="95bc382b-9196-4ce9-9ffe-a1d721c81157"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C415C5E-0C59-4C3B-9C26-A078CE616443}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="95bc382b-9196-4ce9-9ffe-a1d721c81157"/>
+    <ds:schemaRef ds:uri="d2dffda9-c7f4-4d50-9826-5f6ff79bcd11"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
